--- a/biology/Neurosciences/Nerf_optique/Nerf_optique.xlsx
+++ b/biology/Neurosciences/Nerf_optique/Nerf_optique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nerf optique est une partie du système nerveux central composé de substance blanche[1],[2] et considéré comme le deuxième nerf crânien (désigné CN II). C'est un nerf sensitif qui participe aux voies optiques et permet donc la vision.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nerf optique est une partie du système nerveux central composé de substance blanche, et considéré comme le deuxième nerf crânien (désigné CN II). C'est un nerf sensitif qui participe aux voies optiques et permet donc la vision.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Anatomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf optique naît, dans l'orbite, du globe oculaire, à proximité de son pôle postérieur, un peu en dedans. Il a un trajet orienté en arrière et en dedans, successivement dans l'orbite, le canal optique et une partie de la cavité crânienne. Il se termine à l'angle antérolatéral correspondant du chiasma optique. Le nerf optique mesure approximativement 40 mm de long pour 4 mm de diamètre. Il comporte environ 1,2 million d'axones issus du globe oculaire et qui se continuent dans le chiasma optique. Ces axones sont myélinisés par des oligodendrocytes. Le nerf optique est entouré d'une gaine méningée sur tout son trajet, continue avec la sclérotique du globe oculaire.
 Dans l'orbite, le nerf optique forme un cordon arrondi qui chemine au sein de la graisse, dans l'axe du cône musculo-fascial formé par les muscles droits de l'œil et les fascias associés. Ainsi, au sommet de l'orbite, il est entouré des origines de ces muscles. Sa trajectoire, en arrière et en dedans, est très discrètement courbe ; il présente d'abord une discrète sinuosité à concavité latérale, puis une autre à concavité médiale. Il croise l'artère ophtalmique sur ses faces supérieure et latérale à proximité du sommet de l'orbite. Il est en rapport au-dessus et en dessous avec les veines ophtalmiques. Il est également en rapport avec les nerfs naso-ciliaire, oculomoteur et abducens. Il croise aussi le ganglion ophtalmique sur sa face latérale. Enfin, il est également en rapport avec les vaisseaux et les nerfs ciliaires.
@@ -545,7 +559,9 @@
           <t>Intégration au sein des voies optiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un nerf centripète composé d'environ 1,2 million d'axones issus des cellules ganglionnaires (de la rétine optique), qui se collectent au niveau de la papille (ou tête du nerf optique) avant de sortir du globe oculaire par la lamina cribrosa. Les 1,2 million d'axones font contraste par rapport aux 110 millions de photorécepteurs que contient la rétine. Il y a donc convergence, c'est-à-dire qu'une cellule ganglionnaire intègre l’activité de plusieurs photorécepteurs. 
 Du chiasma, les axones se poursuivent dans deux bandelettes optiques (ou tractus optiques) qui contournent le mésencéphale avant de se terminer au niveau des corps géniculés latéraux (ou corps genouillés latéraux). Les axones des nerfs optiques constituent 15 % des afférences des corps genouillés latéraux.
@@ -577,7 +593,9 @@
           <t>Pathologie du nerf optique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La pathologie du nerf optique regroupe les affections appelées « neuropathies optiques ».
 Les neuropathies optiques les plus fréquentes sont de causes inflammatoires : il s'agit des névrites optiques. Les autres causes de neuropathies optiques sont tumorales (dus à une tumeur), vasculaires, toxiques, ou dégénératives, d'origine génétique, comme dans la neuropathie optique de Leber.
